--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09174600000000001</v>
+        <v>0.1498043333333333</v>
       </c>
       <c r="H2">
-        <v>0.275238</v>
+        <v>0.449413</v>
       </c>
       <c r="I2">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="J2">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N2">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q2">
-        <v>2.178629782974</v>
+        <v>2.863652195718112</v>
       </c>
       <c r="R2">
-        <v>19.607668046766</v>
+        <v>25.772869761463</v>
       </c>
       <c r="S2">
-        <v>0.06224837888574127</v>
+        <v>0.05976857274074485</v>
       </c>
       <c r="T2">
-        <v>0.06224837888574127</v>
+        <v>0.05976857274074487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09174600000000001</v>
+        <v>0.1498043333333333</v>
       </c>
       <c r="H3">
-        <v>0.275238</v>
+        <v>0.449413</v>
       </c>
       <c r="I3">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="J3">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N3">
         <v>14.595625</v>
       </c>
       <c r="O3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q3">
-        <v>0.4463634037500001</v>
+        <v>0.7288292909027779</v>
       </c>
       <c r="R3">
-        <v>4.017270633750001</v>
+        <v>6.559463618125001</v>
       </c>
       <c r="S3">
-        <v>0.01275361169414928</v>
+        <v>0.01521172387975156</v>
       </c>
       <c r="T3">
-        <v>0.01275361169414928</v>
+        <v>0.01521172387975156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09174600000000001</v>
+        <v>0.1498043333333333</v>
       </c>
       <c r="H4">
-        <v>0.275238</v>
+        <v>0.449413</v>
       </c>
       <c r="I4">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="J4">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N4">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q4">
-        <v>0.428433849954</v>
+        <v>0.5868489382907778</v>
       </c>
       <c r="R4">
-        <v>3.855904649586</v>
+        <v>5.281640444617</v>
       </c>
       <c r="S4">
-        <v>0.0122413238026186</v>
+        <v>0.01224838809283735</v>
       </c>
       <c r="T4">
-        <v>0.0122413238026186</v>
+        <v>0.01224838809283735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1498043333333333</v>
+        <v>1.567570333333333</v>
       </c>
       <c r="H5">
-        <v>0.449413</v>
+        <v>4.702711</v>
       </c>
       <c r="I5">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="J5">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N5">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q5">
-        <v>3.557301486915666</v>
+        <v>29.96559663600678</v>
       </c>
       <c r="R5">
-        <v>32.015713382241</v>
+        <v>269.690369724061</v>
       </c>
       <c r="S5">
-        <v>0.1016401467100387</v>
+        <v>0.6254254427045968</v>
       </c>
       <c r="T5">
-        <v>0.1016401467100387</v>
+        <v>0.6254254427045969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1498043333333333</v>
+        <v>1.567570333333333</v>
       </c>
       <c r="H6">
-        <v>0.449413</v>
+        <v>4.702711</v>
       </c>
       <c r="I6">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="J6">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N6">
         <v>14.595625</v>
       </c>
       <c r="O6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q6">
-        <v>0.7288292909027777</v>
+        <v>7.626556248819446</v>
       </c>
       <c r="R6">
-        <v>6.559463618124999</v>
+        <v>68.63900623937501</v>
       </c>
       <c r="S6">
-        <v>0.02082430075898934</v>
+        <v>0.1591772850769121</v>
       </c>
       <c r="T6">
-        <v>0.02082430075898933</v>
+        <v>0.1591772850769122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1498043333333333</v>
+        <v>1.567570333333333</v>
       </c>
       <c r="H7">
-        <v>0.449413</v>
+        <v>4.702711</v>
       </c>
       <c r="I7">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="J7">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N7">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q7">
-        <v>0.6995536292567777</v>
+        <v>6.140856978855444</v>
       </c>
       <c r="R7">
-        <v>6.295982663310999</v>
+        <v>55.267712809699</v>
       </c>
       <c r="S7">
-        <v>0.01998782891209146</v>
+        <v>0.1281685875051572</v>
       </c>
       <c r="T7">
-        <v>0.01998782891209146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8100603333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.430181</v>
-      </c>
-      <c r="I8">
-        <v>0.7703044092363714</v>
-      </c>
-      <c r="J8">
-        <v>0.7703044092363713</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>23.746319</v>
-      </c>
-      <c r="N8">
-        <v>71.238957</v>
-      </c>
-      <c r="O8">
-        <v>0.7135031414879517</v>
-      </c>
-      <c r="P8">
-        <v>0.7135031414879517</v>
-      </c>
-      <c r="Q8">
-        <v>19.23595108457966</v>
-      </c>
-      <c r="R8">
-        <v>173.123559761217</v>
-      </c>
-      <c r="S8">
-        <v>0.5496146158921718</v>
-      </c>
-      <c r="T8">
-        <v>0.5496146158921716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8100603333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.430181</v>
-      </c>
-      <c r="I9">
-        <v>0.7703044092363714</v>
-      </c>
-      <c r="J9">
-        <v>0.7703044092363713</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.865208333333333</v>
-      </c>
-      <c r="N9">
-        <v>14.595625</v>
-      </c>
-      <c r="O9">
-        <v>0.1461844014571983</v>
-      </c>
-      <c r="P9">
-        <v>0.1461844014571983</v>
-      </c>
-      <c r="Q9">
-        <v>3.941112284236111</v>
-      </c>
-      <c r="R9">
-        <v>35.470010558125</v>
-      </c>
-      <c r="S9">
-        <v>0.1126064890040597</v>
-      </c>
-      <c r="T9">
-        <v>0.1126064890040597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8100603333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.430181</v>
-      </c>
-      <c r="I10">
-        <v>0.7703044092363714</v>
-      </c>
-      <c r="J10">
-        <v>0.7703044092363713</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.669782333333333</v>
-      </c>
-      <c r="N10">
-        <v>14.009347</v>
-      </c>
-      <c r="O10">
-        <v>0.1403124570548501</v>
-      </c>
-      <c r="P10">
-        <v>0.1403124570548501</v>
-      </c>
-      <c r="Q10">
-        <v>3.782805433534111</v>
-      </c>
-      <c r="R10">
-        <v>34.04524890180699</v>
-      </c>
-      <c r="S10">
-        <v>0.10808330434014</v>
-      </c>
-      <c r="T10">
-        <v>0.10808330434014</v>
+        <v>0.1281685875051572</v>
       </c>
     </row>
   </sheetData>
